--- a/biology/Zoologie/Colotois_pennaria/Colotois_pennaria.xlsx
+++ b/biology/Zoologie/Colotois_pennaria/Colotois_pennaria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Phalène emplumée ou Himère-plume (Colotois pennaria) est une espèce de lépidoptères (papillons) de la famille des Geometridae.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,9 +551,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Colotois pennaria est originaire d'Europe et d'Asie[1]. Elle est notamment présente dans toute la France métropolitaine[2]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colotois pennaria est originaire d'Europe et d'Asie. Elle est notamment présente dans toute la France métropolitaine
 </t>
         </is>
       </c>
@@ -568,12 +584,14 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (7 novembre 2020)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (7 novembre 2020) :
 Colotois pennaria paupera Hausmann, 1995
 Colotois pennaria pennaria (Linnaeus, 1761)
-Selon Catalogue of Life                                   (7 novembre 2020)[4] :
+Selon Catalogue of Life                                   (7 novembre 2020) :
 Colotois pennaria carbonii Hartig, 1976
 Colotois pennaria mauretanaria Stättermayer, 1930
 Colotois pennaria ussuriensis Bang-Haas, 1927</t>
@@ -604,7 +622,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Plantes hôtes : feuillus divers.
 Les imagos volent de septembre à novembre.
@@ -636,7 +656,9 @@
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Espèce commune dans les forêts feuillues, lisières, haies, bosquets.
 </t>
